--- a/Utils/Data/deals_search_terms_data_model.xlsx
+++ b/Utils/Data/deals_search_terms_data_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/GitHub/banner_magic/Utils/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E48570E-2693-B24A-83C0-37DEDE81AC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21472F0-BA00-7F49-874A-90EDD0531E0F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24480" yWindow="-20780" windowWidth="37620" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22560" yWindow="-16660" windowWidth="37620" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Save over</t>
   </si>
@@ -87,9 +87,6 @@
     <t>hand tools</t>
   </si>
   <si>
-    <t>Great Value</t>
-  </si>
-  <si>
     <t>trade essentials</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>30%</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>40%</t>
   </si>
   <si>
@@ -124,6 +118,15 @@
   </si>
   <si>
     <t>Save up to</t>
+  </si>
+  <si>
+    <t>test equipment</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>Great deals</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,8 +204,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -522,10 +524,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -533,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -544,10 +546,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -555,10 +557,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -577,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -588,10 +590,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -602,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -610,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -621,10 +623,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -632,10 +634,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -643,21 +645,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -665,41 +665,52 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
